--- a/not augmented data/vehicle land detected.xlsx
+++ b/not augmented data/vehicle land detected.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,12 +97,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -144,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,7 +182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D214"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +415,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>104000</v>
+        <v>33108000</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
@@ -426,7 +429,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1108000</v>
+        <v>34108000</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -440,7 +443,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2108000</v>
+        <v>34388000</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -449,12 +452,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3108000</v>
+        <v>35388000</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -463,12 +466,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4108000</v>
+        <v>36388000</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -477,12 +480,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5108000</v>
+        <v>37388000</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -491,12 +494,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6108000</v>
+        <v>38388000</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -505,12 +508,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7108000</v>
+        <v>39388000</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -519,12 +522,12 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8108000</v>
+        <v>40388000</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -533,12 +536,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9108000</v>
+        <v>41388000</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -547,12 +550,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10108000</v>
+        <v>42388000</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -561,12 +564,12 @@
         <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11108000</v>
+        <v>43388000</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -575,12 +578,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12108000</v>
+        <v>44388000</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -589,12 +592,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13108000</v>
+        <v>45388000</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -603,12 +606,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14108000</v>
+        <v>46388000</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -617,12 +620,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15108000</v>
+        <v>47388000</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -631,12 +634,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16108000</v>
+        <v>48388000</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -645,12 +648,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17108000</v>
+        <v>49388000</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -659,12 +662,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18108000</v>
+        <v>50388000</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -673,12 +676,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19108000</v>
+        <v>51388000</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -687,12 +690,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20108000</v>
+        <v>52388000</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -701,12 +704,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21108000</v>
+        <v>53388000</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -715,12 +718,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22108000</v>
+        <v>54388000</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -729,12 +732,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23108000</v>
+        <v>55388000</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -743,12 +746,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24108000</v>
+        <v>56388000</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -757,12 +760,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25108000</v>
+        <v>57388000</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -771,12 +774,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26108000</v>
+        <v>58388000</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -785,12 +788,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27108000</v>
+        <v>59388000</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -799,12 +802,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28108000</v>
+        <v>60388000</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -813,12 +816,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29108000</v>
+        <v>61388000</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -827,12 +830,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30108000</v>
+        <v>62388000</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -841,12 +844,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31108000</v>
+        <v>63388000</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -855,12 +858,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32108000</v>
+        <v>64388000</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -869,12 +872,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33108000</v>
+        <v>65388000</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -883,12 +886,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34108000</v>
+        <v>66388000</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -897,12 +900,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>34388000</v>
+        <v>67388000</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>35388000</v>
+        <v>68388000</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -930,7 +933,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>36388000</v>
+        <v>69388000</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -944,7 +947,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>37388000</v>
+        <v>70388000</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -958,7 +961,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>38388000</v>
+        <v>71388000</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -972,7 +975,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>39388000</v>
+        <v>72388000</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -986,7 +989,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>40388000</v>
+        <v>73388000</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -1000,7 +1003,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>41388000</v>
+        <v>74388000</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>42388000</v>
+        <v>75388000</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43388000</v>
+        <v>76388000</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44388000</v>
+        <v>77388000</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1056,7 +1059,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45388000</v>
+        <v>78388000</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>46388000</v>
+        <v>79388000</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>47388000</v>
+        <v>80388000</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -1098,7 +1101,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>48388000</v>
+        <v>81388000</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>49388000</v>
+        <v>82388000</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>50388000</v>
+        <v>83388000</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -1140,7 +1143,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>51388000</v>
+        <v>84388000</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>52388000</v>
+        <v>85388000</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -1168,7 +1171,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>53388000</v>
+        <v>86388000</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -1182,7 +1185,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>54388000</v>
+        <v>87388000</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>55388000</v>
+        <v>88388000</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1210,7 +1213,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>56388000</v>
+        <v>89388000</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>57388000</v>
+        <v>90388000</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -1238,7 +1241,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>58388000</v>
+        <v>91388000</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>59388000</v>
+        <v>92388000</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>60388000</v>
+        <v>93388000</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -1280,7 +1283,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>61388000</v>
+        <v>94388000</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>62388000</v>
+        <v>95388000</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -1308,7 +1311,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>63388000</v>
+        <v>96388000</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>64388000</v>
+        <v>97388000</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -1336,7 +1339,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>65388000</v>
+        <v>98388000</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1350,7 +1353,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>66388000</v>
+        <v>99388000</v>
       </c>
       <c r="B69" s="1">
         <v>0</v>
@@ -1364,7 +1367,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>67388000</v>
+        <v>100388000</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1378,7 +1381,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>68388000</v>
+        <v>101388000</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>69388000</v>
+        <v>102388000</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>70388000</v>
+        <v>103388000</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1420,7 +1423,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>71388000</v>
+        <v>104388000</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -1434,7 +1437,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>72388000</v>
+        <v>105388000</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -1448,7 +1451,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>73388000</v>
+        <v>106388000</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>74388000</v>
+        <v>107388000</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>75388000</v>
+        <v>108388000</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -1490,7 +1493,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>76388000</v>
+        <v>109388000</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -1504,7 +1507,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>77388000</v>
+        <v>110388000</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -1518,7 +1521,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>78388000</v>
+        <v>111388000</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -1532,7 +1535,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>79388000</v>
+        <v>112388000</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>80388000</v>
+        <v>113388000</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1560,7 +1563,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>81388000</v>
+        <v>114388000</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -1574,7 +1577,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>82388000</v>
+        <v>115388000</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -1588,7 +1591,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>83388000</v>
+        <v>116388000</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -1602,7 +1605,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>84388000</v>
+        <v>117388000</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -1616,7 +1619,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>85388000</v>
+        <v>118388000</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -1630,7 +1633,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>86388000</v>
+        <v>119388000</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -1644,7 +1647,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>87388000</v>
+        <v>120388000</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -1658,7 +1661,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>88388000</v>
+        <v>121388000</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -1672,7 +1675,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>89388000</v>
+        <v>122388000</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -1686,7 +1689,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>90388000</v>
+        <v>123388000</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -1700,7 +1703,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>91388000</v>
+        <v>124388000</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -1714,7 +1717,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>92388000</v>
+        <v>125392000</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -1728,7 +1731,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>93388000</v>
+        <v>126392000</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -1742,7 +1745,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>94388000</v>
+        <v>127392000</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -1756,7 +1759,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>95388000</v>
+        <v>128392000</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>96388000</v>
+        <v>129392000</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>97388000</v>
+        <v>130392000</v>
       </c>
       <c r="B100" s="1">
         <v>0</v>
@@ -1798,7 +1801,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>98388000</v>
+        <v>131408000</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -1812,7 +1815,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>99388000</v>
+        <v>132408000</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>100388000</v>
+        <v>133408000</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -1840,7 +1843,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>101388000</v>
+        <v>134408000</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -1854,7 +1857,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>102388000</v>
+        <v>135408000</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>103388000</v>
+        <v>136408000</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -1882,7 +1885,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>104388000</v>
+        <v>137408000</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -1896,7 +1899,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>105388000</v>
+        <v>138408000</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -1910,7 +1913,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>106388000</v>
+        <v>139408000</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>107388000</v>
+        <v>140408000</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -1938,7 +1941,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>108388000</v>
+        <v>141408000</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -1952,7 +1955,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>109388000</v>
+        <v>142408000</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>110388000</v>
+        <v>143408000</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -1980,7 +1983,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>111388000</v>
+        <v>144408000</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>112388000</v>
+        <v>145408000</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -2008,7 +2011,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>113388000</v>
+        <v>146408000</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>114388000</v>
+        <v>147408000</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -2036,7 +2039,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>115388000</v>
+        <v>148408000</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>116388000</v>
+        <v>149408000</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>117388000</v>
+        <v>150408000</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>118388000</v>
+        <v>151408000</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>119388000</v>
+        <v>152408000</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -2106,7 +2109,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>120388000</v>
+        <v>153408000</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -2120,7 +2123,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>121388000</v>
+        <v>154408000</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -2134,7 +2137,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>122388000</v>
+        <v>155408000</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
@@ -2148,7 +2151,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>123388000</v>
+        <v>156408000</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -2162,7 +2165,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>124388000</v>
+        <v>157408000</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -2176,7 +2179,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>125392000</v>
+        <v>158408000</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>126392000</v>
+        <v>159408000</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>127392000</v>
+        <v>160408000</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>128392000</v>
+        <v>161408000</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -2232,7 +2235,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>129392000</v>
+        <v>162408000</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -2246,7 +2249,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>130392000</v>
+        <v>163408000</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -2260,7 +2263,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>131408000</v>
+        <v>164408000</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -2274,7 +2277,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>132408000</v>
+        <v>165408000</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>133408000</v>
+        <v>166408000</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -2302,7 +2305,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>134408000</v>
+        <v>167408000</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -2316,7 +2319,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>135408000</v>
+        <v>168408000</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -2330,7 +2333,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>136408000</v>
+        <v>169408000</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>137408000</v>
+        <v>170408000</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>138408000</v>
+        <v>171408000</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -2372,7 +2375,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>139408000</v>
+        <v>172408000</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -2386,7 +2389,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>140408000</v>
+        <v>173408000</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -2400,7 +2403,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>141408000</v>
+        <v>174408000</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -2414,7 +2417,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>142408000</v>
+        <v>175408000</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
@@ -2428,7 +2431,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>143408000</v>
+        <v>176408000</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -2442,7 +2445,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>144408000</v>
+        <v>177408000</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -2456,7 +2459,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>145408000</v>
+        <v>178408000</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>146408000</v>
+        <v>179408000</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>147408000</v>
+        <v>180408000</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -2498,7 +2501,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>148408000</v>
+        <v>181408000</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -2512,7 +2515,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>149408000</v>
+        <v>182408000</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -2526,7 +2529,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>150408000</v>
+        <v>183408000</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>151408000</v>
+        <v>184408000</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -2554,7 +2557,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>152408000</v>
+        <v>185408000</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>153408000</v>
+        <v>186408000</v>
       </c>
       <c r="B156" s="1">
         <v>0</v>
@@ -2582,7 +2585,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>154408000</v>
+        <v>187408000</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -2596,7 +2599,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>155408000</v>
+        <v>188408000</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -2610,7 +2613,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>156408000</v>
+        <v>189408000</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>157408000</v>
+        <v>190408000</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -2638,7 +2641,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>158408000</v>
+        <v>191408000</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -2652,7 +2655,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>159408000</v>
+        <v>192408000</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>160408000</v>
+        <v>193408000</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -2680,7 +2683,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>161408000</v>
+        <v>194408000</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -2694,7 +2697,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>162408000</v>
+        <v>195408000</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>163408000</v>
+        <v>196408000</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>164408000</v>
+        <v>197408000</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -2736,7 +2739,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>165408000</v>
+        <v>198408000</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>166408000</v>
+        <v>199408000</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -2764,7 +2767,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>167408000</v>
+        <v>200408000</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -2778,7 +2781,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>168408000</v>
+        <v>201408000</v>
       </c>
       <c r="B171" s="1">
         <v>0</v>
@@ -2792,7 +2795,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>169408000</v>
+        <v>202408000</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -2806,7 +2809,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>170408000</v>
+        <v>203408000</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -2820,7 +2823,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>171408000</v>
+        <v>204408000</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -2834,7 +2837,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>172408000</v>
+        <v>205408000</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>173408000</v>
+        <v>206408000</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -2862,7 +2865,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>174408000</v>
+        <v>207408000</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -2876,7 +2879,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>175408000</v>
+        <v>208408000</v>
       </c>
       <c r="B178" s="1">
         <v>0</v>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>176408000</v>
+        <v>209408000</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>177408000</v>
+        <v>209588000</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -2913,12 +2916,12 @@
         <v>0</v>
       </c>
       <c r="D180" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>178408000</v>
+        <v>210588000</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -2927,468 +2930,6 @@
         <v>0</v>
       </c>
       <c r="D181" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>179408000</v>
-      </c>
-      <c r="B182" s="1">
-        <v>0</v>
-      </c>
-      <c r="C182" s="1">
-        <v>0</v>
-      </c>
-      <c r="D182" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>180408000</v>
-      </c>
-      <c r="B183" s="1">
-        <v>0</v>
-      </c>
-      <c r="C183" s="1">
-        <v>0</v>
-      </c>
-      <c r="D183" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>181408000</v>
-      </c>
-      <c r="B184" s="1">
-        <v>0</v>
-      </c>
-      <c r="C184" s="1">
-        <v>0</v>
-      </c>
-      <c r="D184" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>182408000</v>
-      </c>
-      <c r="B185" s="1">
-        <v>0</v>
-      </c>
-      <c r="C185" s="1">
-        <v>0</v>
-      </c>
-      <c r="D185" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>183408000</v>
-      </c>
-      <c r="B186" s="1">
-        <v>0</v>
-      </c>
-      <c r="C186" s="1">
-        <v>0</v>
-      </c>
-      <c r="D186" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>184408000</v>
-      </c>
-      <c r="B187" s="1">
-        <v>0</v>
-      </c>
-      <c r="C187" s="1">
-        <v>0</v>
-      </c>
-      <c r="D187" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>185408000</v>
-      </c>
-      <c r="B188" s="1">
-        <v>0</v>
-      </c>
-      <c r="C188" s="1">
-        <v>0</v>
-      </c>
-      <c r="D188" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>186408000</v>
-      </c>
-      <c r="B189" s="1">
-        <v>0</v>
-      </c>
-      <c r="C189" s="1">
-        <v>0</v>
-      </c>
-      <c r="D189" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>187408000</v>
-      </c>
-      <c r="B190" s="1">
-        <v>0</v>
-      </c>
-      <c r="C190" s="1">
-        <v>0</v>
-      </c>
-      <c r="D190" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>188408000</v>
-      </c>
-      <c r="B191" s="1">
-        <v>0</v>
-      </c>
-      <c r="C191" s="1">
-        <v>0</v>
-      </c>
-      <c r="D191" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>189408000</v>
-      </c>
-      <c r="B192" s="1">
-        <v>0</v>
-      </c>
-      <c r="C192" s="1">
-        <v>0</v>
-      </c>
-      <c r="D192" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>190408000</v>
-      </c>
-      <c r="B193" s="1">
-        <v>0</v>
-      </c>
-      <c r="C193" s="1">
-        <v>0</v>
-      </c>
-      <c r="D193" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>191408000</v>
-      </c>
-      <c r="B194" s="1">
-        <v>0</v>
-      </c>
-      <c r="C194" s="1">
-        <v>0</v>
-      </c>
-      <c r="D194" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>192408000</v>
-      </c>
-      <c r="B195" s="1">
-        <v>0</v>
-      </c>
-      <c r="C195" s="1">
-        <v>0</v>
-      </c>
-      <c r="D195" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>193408000</v>
-      </c>
-      <c r="B196" s="1">
-        <v>0</v>
-      </c>
-      <c r="C196" s="1">
-        <v>0</v>
-      </c>
-      <c r="D196" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>194408000</v>
-      </c>
-      <c r="B197" s="1">
-        <v>0</v>
-      </c>
-      <c r="C197" s="1">
-        <v>0</v>
-      </c>
-      <c r="D197" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>195408000</v>
-      </c>
-      <c r="B198" s="1">
-        <v>0</v>
-      </c>
-      <c r="C198" s="1">
-        <v>0</v>
-      </c>
-      <c r="D198" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>196408000</v>
-      </c>
-      <c r="B199" s="1">
-        <v>0</v>
-      </c>
-      <c r="C199" s="1">
-        <v>0</v>
-      </c>
-      <c r="D199" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>197408000</v>
-      </c>
-      <c r="B200" s="1">
-        <v>0</v>
-      </c>
-      <c r="C200" s="1">
-        <v>0</v>
-      </c>
-      <c r="D200" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>198408000</v>
-      </c>
-      <c r="B201" s="1">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1">
-        <v>0</v>
-      </c>
-      <c r="D201" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>199408000</v>
-      </c>
-      <c r="B202" s="1">
-        <v>0</v>
-      </c>
-      <c r="C202" s="1">
-        <v>0</v>
-      </c>
-      <c r="D202" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>200408000</v>
-      </c>
-      <c r="B203" s="1">
-        <v>0</v>
-      </c>
-      <c r="C203" s="1">
-        <v>0</v>
-      </c>
-      <c r="D203" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>201408000</v>
-      </c>
-      <c r="B204" s="1">
-        <v>0</v>
-      </c>
-      <c r="C204" s="1">
-        <v>0</v>
-      </c>
-      <c r="D204" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>202408000</v>
-      </c>
-      <c r="B205" s="1">
-        <v>0</v>
-      </c>
-      <c r="C205" s="1">
-        <v>0</v>
-      </c>
-      <c r="D205" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>203408000</v>
-      </c>
-      <c r="B206" s="1">
-        <v>0</v>
-      </c>
-      <c r="C206" s="1">
-        <v>0</v>
-      </c>
-      <c r="D206" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>204408000</v>
-      </c>
-      <c r="B207" s="1">
-        <v>0</v>
-      </c>
-      <c r="C207" s="1">
-        <v>0</v>
-      </c>
-      <c r="D207" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>205408000</v>
-      </c>
-      <c r="B208" s="1">
-        <v>0</v>
-      </c>
-      <c r="C208" s="1">
-        <v>0</v>
-      </c>
-      <c r="D208" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>206408000</v>
-      </c>
-      <c r="B209" s="1">
-        <v>0</v>
-      </c>
-      <c r="C209" s="1">
-        <v>0</v>
-      </c>
-      <c r="D209" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>207408000</v>
-      </c>
-      <c r="B210" s="1">
-        <v>0</v>
-      </c>
-      <c r="C210" s="1">
-        <v>0</v>
-      </c>
-      <c r="D210" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>208408000</v>
-      </c>
-      <c r="B211" s="1">
-        <v>0</v>
-      </c>
-      <c r="C211" s="1">
-        <v>0</v>
-      </c>
-      <c r="D211" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>209408000</v>
-      </c>
-      <c r="B212" s="1">
-        <v>0</v>
-      </c>
-      <c r="C212" s="1">
-        <v>0</v>
-      </c>
-      <c r="D212" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>209588000</v>
-      </c>
-      <c r="B213" s="1">
-        <v>0</v>
-      </c>
-      <c r="C213" s="1">
-        <v>0</v>
-      </c>
-      <c r="D213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>210588000</v>
-      </c>
-      <c r="B214" s="1">
-        <v>0</v>
-      </c>
-      <c r="C214" s="1">
-        <v>0</v>
-      </c>
-      <c r="D214" s="1">
         <v>1</v>
       </c>
     </row>
